--- a/Assets/Excel/Editor/Excel/Item.xlsx
+++ b/Assets/Excel/Editor/Excel/Item.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\卡背\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szn/Programmer/Unity5.6.4/ExcelConverter/Assets/Excel/Editor/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-60" windowWidth="16575" windowHeight="14205" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Icon</t>
-  </si>
-  <si>
-    <t>Des</t>
   </si>
   <si>
     <t>PileUpperLimit</t>
@@ -821,9 +818,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Card_Back_8</t>
-  </si>
-  <si>
     <t>圣诞节最终礼包</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -918,7 +912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1334,25 +1328,25 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="24" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,86 +1356,80 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20000001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1453,18 +1441,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>20000002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1476,18 +1464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>20000003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1499,18 +1487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20000004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1522,18 +1510,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>20000005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1545,18 +1533,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>20000006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1568,18 +1556,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>20000007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1591,18 +1579,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>20000008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1614,18 +1602,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>20000009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1637,18 +1625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>20000010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
@@ -1660,18 +1648,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>20000011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
@@ -1683,18 +1671,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>20000012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -1706,15 +1694,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20101001</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1726,15 +1714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>20101002</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1746,15 +1734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>20101003</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1766,15 +1754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>20101004</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1786,15 +1774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20101005</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1806,15 +1794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20101006</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1826,15 +1814,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20101007</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1846,15 +1834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20101008</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1866,15 +1854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20101009</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1886,15 +1874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20101010</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1906,15 +1894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>20101011</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1926,15 +1914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20101012</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1946,15 +1934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20101013</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1966,15 +1954,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>20102001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1986,15 +1974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>20102002</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2006,15 +1994,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20102003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2026,15 +2014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20102004</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2046,15 +2034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20102005</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2066,15 +2054,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20102006</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2086,15 +2074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20102007</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2106,15 +2094,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20102008</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2126,15 +2114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20102009</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -2146,15 +2134,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>20102010</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2166,15 +2154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>20102011</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -2186,15 +2174,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>20102012</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -2206,15 +2194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>20102013</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -2226,15 +2214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>20103001</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2246,15 +2234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>20103002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2266,15 +2254,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>20103003</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2286,15 +2274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>20103004</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2306,15 +2294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>20103005</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -2326,15 +2314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>20103006</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -2346,15 +2334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>20103007</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2366,15 +2354,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>20103008</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2386,15 +2374,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>20103009</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2406,15 +2394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>20103010</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -2426,15 +2414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>20103011</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2446,15 +2434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>20103012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2466,15 +2454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>20103013</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2486,15 +2474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>20104001</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -2506,15 +2494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>20104002</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -2526,15 +2514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>20104003</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -2546,15 +2534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>20104004</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -2566,15 +2554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>20104005</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -2586,15 +2574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>20104006</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -2606,15 +2594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>20104007</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -2626,15 +2614,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>20104008</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -2646,15 +2634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>20104009</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2666,15 +2654,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>20104010</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -2686,15 +2674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>20104011</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -2706,15 +2694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>20104012</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -2726,15 +2714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>20104013</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -2746,15 +2734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>20200001</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -2766,15 +2754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>20200002</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -2786,15 +2774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>20200003</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -2806,15 +2794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>20200004</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2826,15 +2814,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>20200005</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2846,15 +2834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>20200006</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2866,15 +2854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>20200007</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2886,18 +2874,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="49.5">
+    <row r="75" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>20300001</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -2909,18 +2897,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>20300002</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -2932,18 +2920,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>20300003</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -2955,18 +2943,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="33">
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>20300004</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -2981,18 +2969,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>20300005</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -3004,18 +2992,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="33">
+    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>20300006</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -3027,18 +3015,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>20300007</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -3050,18 +3038,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>20300008</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -3073,18 +3061,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>20300009</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -3096,18 +3084,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="33">
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>20300010</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -3119,18 +3107,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="33">
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>20300011</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -3142,18 +3130,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>20300012</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -3165,18 +3153,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>20400001</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -3188,18 +3176,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>20400002</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -3211,18 +3199,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>20400003</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -3234,18 +3222,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>20400004</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -3257,18 +3245,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>20400005</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -3280,18 +3268,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>20400006</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -3303,18 +3291,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>20400007</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -3326,18 +3314,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>20410001</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -3349,18 +3337,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>20410002</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -3372,18 +3360,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>20410003</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -3395,18 +3383,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>20410004</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -3418,18 +3406,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>20410005</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -3441,18 +3429,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>20410006</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -3464,18 +3452,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>20410007</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -3487,18 +3475,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>20410008</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -3510,18 +3498,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>20500001</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -3533,18 +3521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>20500002</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -3556,18 +3544,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>20500003</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -3579,18 +3567,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>20500004</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -3602,18 +3590,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>20510005</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -3625,18 +3613,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>20510006</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -3648,18 +3636,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>20500005</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -3671,18 +3659,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>20500006</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -3694,18 +3682,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>20500007</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -3717,18 +3705,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>20500008</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -3740,18 +3728,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>20500009</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -3763,18 +3751,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>20500010</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -3786,18 +3774,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>20500011</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -3809,41 +3797,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="4">
-        <v>20500012</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="2">
-        <v>0</v>
-      </c>
-      <c r="G115" s="2">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>20500013</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -3855,18 +3823,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>20500014</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D117" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -3878,18 +3846,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>20500015</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -3901,18 +3869,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>20500016</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -3924,18 +3892,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>20500017</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -3947,18 +3915,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>20500018</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -3970,18 +3938,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>20500019</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -3993,18 +3961,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>20500020</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -4016,18 +3984,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>20500021</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -4039,18 +4007,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>20500022</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -4062,18 +4030,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>20500023</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -4085,18 +4053,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>20500024</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -4108,18 +4076,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>20500025</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -4131,18 +4099,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>20500026</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -4154,18 +4122,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>20500027</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -4177,18 +4145,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>20500028</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -4200,18 +4168,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>20600001</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -4223,18 +4191,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>20600002</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -4246,18 +4214,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>20600003</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -4269,18 +4237,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>20600004</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -4292,15 +4260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>30000001</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
